--- a/数据整理/stocks/港股/00123-越秀地产.xlsx
+++ b/数据整理/stocks/港股/00123-越秀地产.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005702</t>
-  </si>
-  <si>
-    <t>恒生前海港股通高股息低波动指数</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>93.29</t>
-  </si>
-  <si>
-    <t>2.39</t>
-  </si>
-  <si>
-    <t>0.0072</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00123-越秀地产.xlsx
+++ b/数据整理/stocks/港股/00123-越秀地产.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00123-越秀地产.xlsx
+++ b/数据整理/stocks/港股/00123-越秀地产.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -640,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,17 +652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -671,7 +692,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -687,13 +782,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00123-越秀地产.xlsx
+++ b/数据整理/stocks/港股/00123-越秀地产.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,14 +787,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -782,14 +825,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -798,13 +863,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00123-越秀地产.xlsx
+++ b/数据整理/stocks/港股/00123-越秀地产.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,36 +605,188 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>005702</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,188 +945,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013009</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家港股通精选混合A</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1314</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009140</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永赢竞争力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家港股通精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -982,96 +988,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00123-越秀地产.xlsx
+++ b/数据整理/stocks/港股/00123-越秀地产.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +518,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9371</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -787,100 +1696,6 @@
       </c>
       <c r="H6" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -955,26 +1770,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -983,6 +1798,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00123-越秀地产.xlsx
+++ b/数据整理/stocks/港股/00123-越秀地产.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.27</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -534,7 +535,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1457,7 +2214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1696,100 +2453,6 @@
       </c>
       <c r="H6" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1864,26 +2527,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1892,6 +2555,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
